--- a/biology/Mycologie/Monilia/Monilia.xlsx
+++ b/biology/Mycologie/Monilia/Monilia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Monilia est un genre de champignons microscopique dont plusieurs espèces sont responsables d'une maladie des fruits appelée « moniliose ».
 Le nom Monilia est donnée à la forme asexuée (Deutéromycète) de Monilinia, champignon ascomycète de la famille des Sclerotiniaceae. Ces champignons sont également connus sous une forme stérile (rattachée au genre Sclerotinia).
@@ -516,9 +528,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (21 septembre 2014)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (21 septembre 2014) :
 Monilia alboviolacea
 Monilia alessandrina
 Monilia allii
@@ -587,7 +601,7 @@
 Monilia versiformis
 Monilia yunnanensis
 Monilia zeylanica
-Selon Index Fungorum                                      (21 septembre 2014)[3] :
+Selon Index Fungorum                                      (21 septembre 2014) :
 Monilia albicans Pers. 1822
 Monilia albolutea Fayod 1885
 Monilia albolutea Secr. 1833
@@ -668,7 +682,7 @@
 Monilia libertiana Roum. 1884
 Monilia londinensis Castell. &amp; Chalm. 1919
 Monilia lunzinensis Svilv. 1941
-Selon NCBI  (21 septembre 2014)[4] :
+Selon NCBI  (21 septembre 2014) :
 Monilia fructigena
 Monilia mumecola
 Monilia polystroma
